--- a/Documentación/tabla siguientes práctica1 lenguajes 2023.xlsx
+++ b/Documentación/tabla siguientes práctica1 lenguajes 2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="67">
   <si>
     <t xml:space="preserve">NODO</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t xml:space="preserve">$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es</t>
   </si>
   <si>
     <t xml:space="preserve">s0</t>
@@ -504,11 +507,11 @@
   </sheetPr>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.05"/>
@@ -1255,8 +1258,8 @@
   </sheetPr>
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL13" activeCellId="0" sqref="AL13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1425,10 +1428,13 @@
         <v>37</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>20</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1</v>
@@ -1525,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>1</v>
@@ -1614,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>2</v>
@@ -1703,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>-1</v>
@@ -1792,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>-1</v>
@@ -1881,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="9" t="n">
         <v>-1</v>
@@ -1970,7 +1976,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>-1</v>
@@ -2059,7 +2065,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>-1</v>
@@ -2148,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="9" t="n">
         <v>-1</v>
@@ -2237,7 +2243,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="9" t="n">
         <v>-1</v>
@@ -2326,7 +2332,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="11" t="n">
         <v>-1</v>
@@ -2415,7 +2421,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="9" t="n">
         <v>-1</v>
@@ -2504,7 +2510,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="9" t="n">
         <v>-1</v>
@@ -2593,7 +2599,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="9" t="n">
         <v>13</v>
@@ -2682,7 +2688,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="9" t="n">
         <v>14</v>
@@ -2771,7 +2777,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="9" t="n">
         <v>15</v>
@@ -2860,7 +2866,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="9" t="n">
         <v>-1</v>
@@ -2949,7 +2955,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="9" t="n">
         <v>-1</v>
@@ -3038,7 +3044,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="9" t="n">
         <v>-1</v>
@@ -3127,7 +3133,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="9" t="n">
         <v>-1</v>
@@ -3216,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="9" t="n">
         <v>-1</v>
@@ -3305,7 +3311,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="9" t="n">
         <v>-1</v>
@@ -3394,7 +3400,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="9" t="n">
         <v>-1</v>
@@ -3483,7 +3489,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="9" t="n">
         <v>-1</v>
@@ -3569,106 +3575,106 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G38" s="15"/>
       <c r="L38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,7 +3682,7 @@
         <v>55</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3684,15 +3690,15 @@
         <v>56</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,7 +3706,7 @@
         <v>61</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,50 +3714,52 @@
         <v>62</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0"/>
+      <c r="B45" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="L45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="L46" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L47" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L48" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L49" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L50" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L52" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
